--- a/AfDD_2021_Annex_Table_Tab04.xlsx
+++ b/AfDD_2021_Annex_Table_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -917,7 +917,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1056,6 +1056,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12907,17 +12908,17 @@
       </c>
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B109" s="49" t="s">
+      <c r="B109" s="50" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B110" s="49" t="s">
+      <c r="B110" s="50" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="B111" s="49" t="s">
+      <c r="B111" s="50" t="s">
         <v>165</v>
       </c>
     </row>
@@ -12925,10 +12926,10 @@
   <hyperlinks>
     <hyperlink ref="B107" r:id="rId1"/>
     <hyperlink ref="B108" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B109" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
-    <hyperlink ref="B111" r:id="rId5"/>
-    <hyperlink ref="B105" r:id="rId6"/>
+    <hyperlink ref="B105" r:id="rId3"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2021_Annex_Table_Tab04.xlsx
+++ b/AfDD_2021_Annex_Table_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t/>
   </si>
   <si>
     <t>Southern Africa</t>

--- a/AfDD_2021_Annex_Table_Tab04.xlsx
+++ b/AfDD_2021_Annex_Table_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="165">
   <si>
     <t>Table 4: Annual real GDP growth per capita, 1990-2025</t>
   </si>
@@ -500,9 +500,6 @@
   </si>
   <si>
     <t>Figures up to 2019 are estimates. For 2020 onwards, they are projections.</t>
-  </si>
-  <si>
-    <t>Source: IMF World Economic Outlook Database October 2020.</t>
   </si>
   <si>
     <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2021</t>
@@ -12884,14 +12881,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A103" s="45" t="s">
-        <v>159</v>
-      </c>
-    </row>
     <row r="105" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B105" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
@@ -12899,27 +12891,27 @@
     </row>
     <row r="107" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B107" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B108" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B109" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B110" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B111" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/AfDD_2021_Annex_Table_Tab04.xlsx
+++ b/AfDD_2021_Annex_Table_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="166">
   <si>
     <t>Table 4: Annual real GDP growth per capita, 1990-2025</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>Figures up to 2019 are estimates. For 2020 onwards, they are projections.</t>
+  </si>
+  <si>
+    <t>Source: IMF World Economic Outlook Database October 2020.</t>
   </si>
   <si>
     <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2021</t>
@@ -12881,9 +12884,14 @@
         <v>158</v>
       </c>
     </row>
+    <row r="103" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A103" s="45" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="105" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B105" s="48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="15.5" x14ac:dyDescent="0.35">
@@ -12891,27 +12899,27 @@
     </row>
     <row r="107" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B107" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B108" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B109" s="50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B110" s="50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B111" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/AfDD_2021_Annex_Table_Tab04.xlsx
+++ b/AfDD_2021_Annex_Table_Tab04.xlsx
@@ -460,7 +460,7 @@
     <t>ROW, Upper middle income countries</t>
   </si>
   <si>
-    <t>High income countries (no LAC)</t>
+    <t>High income countries</t>
   </si>
   <si>
     <t>Africa, Least Developed Countries</t>

--- a/AfDD_2021_Annex_Table_Tab04.xlsx
+++ b/AfDD_2021_Annex_Table_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Tab04.xlsx
+++ b/AfDD_2021_Annex_Table_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
